--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>8.678573135974323</v>
+        <v>26.56630007496301</v>
       </c>
       <c r="R2">
-        <v>8.678573135974323</v>
+        <v>239.096700674667</v>
       </c>
       <c r="S2">
-        <v>2.156154498427299E-05</v>
+        <v>4.836656150440172E-05</v>
       </c>
       <c r="T2">
-        <v>2.156154498427299E-05</v>
+        <v>4.836656150440172E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>770.0955674798785</v>
+        <v>2172.564111190416</v>
       </c>
       <c r="R3">
-        <v>770.0955674798785</v>
+        <v>19553.07700071374</v>
       </c>
       <c r="S3">
-        <v>0.001913269607831966</v>
+        <v>0.003955366588860359</v>
       </c>
       <c r="T3">
-        <v>0.001913269607831966</v>
+        <v>0.003955366588860358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>657.5246073755715</v>
+        <v>2017.169589103489</v>
       </c>
       <c r="R4">
-        <v>657.5246073755715</v>
+        <v>18154.5263019314</v>
       </c>
       <c r="S4">
-        <v>0.001633591856410987</v>
+        <v>0.003672455581728896</v>
       </c>
       <c r="T4">
-        <v>0.001633591856410987</v>
+        <v>0.003672455581728895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H5">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J5">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>675.3638451872899</v>
+        <v>1909.363861729925</v>
       </c>
       <c r="R5">
-        <v>675.3638451872899</v>
+        <v>17184.27475556933</v>
       </c>
       <c r="S5">
-        <v>0.00167791268225828</v>
+        <v>0.003476184654696257</v>
       </c>
       <c r="T5">
-        <v>0.00167791268225828</v>
+        <v>0.003476184654696257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H6">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J6">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>284.7513048358533</v>
+        <v>813.9239804432061</v>
       </c>
       <c r="R6">
-        <v>284.7513048358533</v>
+        <v>7325.315823988854</v>
       </c>
       <c r="S6">
-        <v>0.0007074524777694797</v>
+        <v>0.00148182863812166</v>
       </c>
       <c r="T6">
-        <v>0.0007074524777694797</v>
+        <v>0.00148182863812166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H7">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J7">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>117.2408571680015</v>
+        <v>349.3877653501351</v>
       </c>
       <c r="R7">
-        <v>117.2408571680015</v>
+        <v>3144.489888151216</v>
       </c>
       <c r="S7">
-        <v>0.0002912799115956043</v>
+        <v>0.0006360947815092509</v>
       </c>
       <c r="T7">
-        <v>0.0002912799115956043</v>
+        <v>0.0006360947815092509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H8">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J8">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>150.0371758593641</v>
+        <v>167.0398683503101</v>
       </c>
       <c r="R8">
-        <v>150.0371758593641</v>
+        <v>1503.35881515279</v>
       </c>
       <c r="S8">
-        <v>0.0003727609672602899</v>
+        <v>0.0003041125050705311</v>
       </c>
       <c r="T8">
-        <v>0.0003727609672602899</v>
+        <v>0.0003041125050705311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H9">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J9">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>13313.58995035116</v>
+        <v>13660.34495175598</v>
       </c>
       <c r="R9">
-        <v>13313.58995035116</v>
+        <v>122943.1045658038</v>
       </c>
       <c r="S9">
-        <v>0.03307704666643149</v>
+        <v>0.02487000118255531</v>
       </c>
       <c r="T9">
-        <v>0.03307704666643149</v>
+        <v>0.02487000118255531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H10">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J10">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>11367.43720459439</v>
+        <v>12683.27699579239</v>
       </c>
       <c r="R10">
-        <v>11367.43720459439</v>
+        <v>114149.4929621315</v>
       </c>
       <c r="S10">
-        <v>0.02824191313509552</v>
+        <v>0.02309115289533634</v>
       </c>
       <c r="T10">
-        <v>0.02824191313509552</v>
+        <v>0.02309115289533634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H11">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J11">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>11675.8460661455</v>
+        <v>12005.43121158171</v>
       </c>
       <c r="R11">
-        <v>11675.8460661455</v>
+        <v>108048.8809042354</v>
       </c>
       <c r="S11">
-        <v>0.02900814180399017</v>
+        <v>0.02185706799378759</v>
       </c>
       <c r="T11">
-        <v>0.02900814180399017</v>
+        <v>0.02185706799378759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H12">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J12">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>4922.846294023179</v>
+        <v>5117.677439340706</v>
       </c>
       <c r="R12">
-        <v>4922.846294023179</v>
+        <v>46059.09695406635</v>
       </c>
       <c r="S12">
-        <v>0.01223060175402045</v>
+        <v>0.009317234990612672</v>
       </c>
       <c r="T12">
-        <v>0.01223060175402045</v>
+        <v>0.009317234990612672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H13">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J13">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>2026.887004259046</v>
+        <v>2196.831555866436</v>
       </c>
       <c r="R13">
-        <v>2026.887004259046</v>
+        <v>19771.48400279792</v>
       </c>
       <c r="S13">
-        <v>0.005035714354841731</v>
+        <v>0.003999547858068544</v>
       </c>
       <c r="T13">
-        <v>0.005035714354841731</v>
+        <v>0.003999547858068544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H14">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I14">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J14">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>315.906809505417</v>
+        <v>703.2782101788781</v>
       </c>
       <c r="R14">
-        <v>315.906809505417</v>
+        <v>6329.503891609902</v>
       </c>
       <c r="S14">
-        <v>0.0007848570009457552</v>
+        <v>0.001280387133749924</v>
       </c>
       <c r="T14">
-        <v>0.0007848570009457552</v>
+        <v>0.001280387133749924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H15">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I15">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J15">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>28032.07738474853</v>
+        <v>57513.35320708894</v>
       </c>
       <c r="R15">
-        <v>28032.07738474853</v>
+        <v>517620.1788638004</v>
       </c>
       <c r="S15">
-        <v>0.06964450124047041</v>
+        <v>0.1047087147011728</v>
       </c>
       <c r="T15">
-        <v>0.06964450124047041</v>
+        <v>0.1047087147011728</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H16">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I16">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J16">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>23934.4069160741</v>
+        <v>53399.66100845679</v>
       </c>
       <c r="R16">
-        <v>23934.4069160741</v>
+        <v>480596.9490761112</v>
       </c>
       <c r="S16">
-        <v>0.05946401364685729</v>
+        <v>0.09721933356138698</v>
       </c>
       <c r="T16">
-        <v>0.05946401364685729</v>
+        <v>0.09721933356138697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H17">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I17">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J17">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>24583.7690419457</v>
+        <v>50545.76645858061</v>
       </c>
       <c r="R17">
-        <v>24583.7690419457</v>
+        <v>454911.8981272255</v>
       </c>
       <c r="S17">
-        <v>0.06107732616594244</v>
+        <v>0.09202353791486599</v>
       </c>
       <c r="T17">
-        <v>0.06107732616594244</v>
+        <v>0.09202353791486596</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H18">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I18">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J18">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>10365.16888246512</v>
+        <v>21546.65868308962</v>
       </c>
       <c r="R18">
-        <v>10365.16888246512</v>
+        <v>193919.9281478066</v>
       </c>
       <c r="S18">
-        <v>0.02575182021598158</v>
+        <v>0.0392278107779168</v>
       </c>
       <c r="T18">
-        <v>0.02575182021598158</v>
+        <v>0.0392278107779168</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.805416198006</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H19">
-        <v>196.805416198006</v>
+        <v>1206.273934</v>
       </c>
       <c r="I19">
-        <v>0.2273253335145328</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J19">
-        <v>0.2273253335145328</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>4267.658352511604</v>
+        <v>9249.191704546498</v>
       </c>
       <c r="R19">
-        <v>4267.658352511604</v>
+        <v>83242.72534091849</v>
       </c>
       <c r="S19">
-        <v>0.01060281524433529</v>
+        <v>0.01683906295500855</v>
       </c>
       <c r="T19">
-        <v>0.01060281524433529</v>
+        <v>0.01683906295500855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H20">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J20">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>269.7909997844338</v>
+        <v>336.1891254385891</v>
       </c>
       <c r="R20">
-        <v>269.7909997844338</v>
+        <v>3025.702128947302</v>
       </c>
       <c r="S20">
-        <v>0.0006702842376347594</v>
+        <v>0.0006120653597510487</v>
       </c>
       <c r="T20">
-        <v>0.0006702842376347594</v>
+        <v>0.0006120653597510488</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H21">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J21">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>23939.97836104334</v>
+        <v>27493.19349850747</v>
       </c>
       <c r="R21">
-        <v>23939.97836104334</v>
+        <v>247438.7414865672</v>
       </c>
       <c r="S21">
-        <v>0.05947785566436977</v>
+        <v>0.05005406212177745</v>
       </c>
       <c r="T21">
-        <v>0.05947785566436977</v>
+        <v>0.05005406212177745</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H22">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J22">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>20440.4823727751</v>
+        <v>25526.7191181482</v>
       </c>
       <c r="R22">
-        <v>20440.4823727751</v>
+        <v>229740.4720633338</v>
       </c>
       <c r="S22">
-        <v>0.0507835070668388</v>
+        <v>0.04647390215233883</v>
       </c>
       <c r="T22">
-        <v>0.0507835070668388</v>
+        <v>0.04647390215233883</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H23">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J23">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>20995.05116296777</v>
+        <v>24162.46767550391</v>
       </c>
       <c r="R23">
-        <v>20995.05116296777</v>
+        <v>217462.2090795352</v>
       </c>
       <c r="S23">
-        <v>0.05216130958451851</v>
+        <v>0.04399014825654098</v>
       </c>
       <c r="T23">
-        <v>0.05216130958451851</v>
+        <v>0.04399014825654098</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H24">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J24">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>8852.070267535073</v>
+        <v>10299.98119371456</v>
       </c>
       <c r="R24">
-        <v>8852.070267535073</v>
+        <v>92699.83074343107</v>
       </c>
       <c r="S24">
-        <v>0.02199259121136334</v>
+        <v>0.01875212854233599</v>
       </c>
       <c r="T24">
-        <v>0.02199259121136334</v>
+        <v>0.01875212854233599</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>168.07592746158</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H25">
-        <v>168.07592746158</v>
+        <v>576.636917</v>
       </c>
       <c r="I25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J25">
-        <v>0.1941405729785764</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>3644.669184134038</v>
+        <v>4421.40482267245</v>
       </c>
       <c r="R25">
-        <v>3644.669184134038</v>
+        <v>39792.64340405205</v>
       </c>
       <c r="S25">
-        <v>0.009055025213851245</v>
+        <v>0.008049602228696622</v>
       </c>
       <c r="T25">
-        <v>0.009055025213851245</v>
+        <v>0.008049602228696624</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H26">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J26">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>587.4490391345379</v>
+        <v>703.8952240661821</v>
       </c>
       <c r="R26">
-        <v>587.4490391345379</v>
+        <v>6335.057016595639</v>
       </c>
       <c r="S26">
-        <v>0.001459492094473807</v>
+        <v>0.00128151046820166</v>
       </c>
       <c r="T26">
-        <v>0.001459492094473807</v>
+        <v>0.00128151046820166</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H27">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J27">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>52127.45160636736</v>
+        <v>57563.81195459538</v>
       </c>
       <c r="R27">
-        <v>52127.45160636736</v>
+        <v>518074.3075913584</v>
       </c>
       <c r="S27">
-        <v>0.1295084312958342</v>
+        <v>0.1048005798125289</v>
       </c>
       <c r="T27">
-        <v>0.1295084312958342</v>
+        <v>0.1048005798125289</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H28">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J28">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>44507.56970739395</v>
+        <v>53446.51065052258</v>
       </c>
       <c r="R28">
-        <v>44507.56970739395</v>
+        <v>481018.5958547033</v>
       </c>
       <c r="S28">
-        <v>0.1105771595573357</v>
+        <v>0.09730462794141129</v>
       </c>
       <c r="T28">
-        <v>0.1105771595573357</v>
+        <v>0.09730462794141129</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H29">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J29">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>45715.10036332015</v>
+        <v>50590.11226568509</v>
       </c>
       <c r="R29">
-        <v>45715.10036332015</v>
+        <v>455311.0103911658</v>
       </c>
       <c r="S29">
-        <v>0.1135772179943288</v>
+        <v>0.0921042738171455</v>
       </c>
       <c r="T29">
-        <v>0.1135772179943288</v>
+        <v>0.09210427381714549</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H30">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J30">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>19274.69847834014</v>
+        <v>21565.56242195149</v>
       </c>
       <c r="R30">
-        <v>19274.69847834014</v>
+        <v>194090.0617975635</v>
       </c>
       <c r="S30">
-        <v>0.04788716667908466</v>
+        <v>0.0392622268932865</v>
       </c>
       <c r="T30">
-        <v>0.04788716667908466</v>
+        <v>0.0392622268932865</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>365.972334762252</v>
+        <v>402.444082</v>
       </c>
       <c r="H31">
-        <v>365.972334762252</v>
+        <v>1207.332246</v>
       </c>
       <c r="I31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="J31">
-        <v>0.4227260848005264</v>
+        <v>0.3516070554658648</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>7935.985306750526</v>
+        <v>9257.306387534602</v>
       </c>
       <c r="R31">
-        <v>7935.985306750526</v>
+        <v>83315.75748781142</v>
       </c>
       <c r="S31">
-        <v>0.01971661717946916</v>
+        <v>0.01685383653329101</v>
       </c>
       <c r="T31">
-        <v>0.01971661717946916</v>
+        <v>0.01685383653329101</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H32">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J32">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>57.80570140725458</v>
+        <v>64.96841485753501</v>
       </c>
       <c r="R32">
-        <v>57.80570140725458</v>
+        <v>584.7157337178151</v>
       </c>
       <c r="S32">
-        <v>0.0001436158008594167</v>
+        <v>0.0001182813874790138</v>
       </c>
       <c r="T32">
-        <v>0.0001436158008594167</v>
+        <v>0.0001182813874790138</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H33">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J33">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>5129.40476865549</v>
+        <v>5313.04871518159</v>
       </c>
       <c r="R33">
-        <v>5129.40476865549</v>
+        <v>47817.4384366343</v>
       </c>
       <c r="S33">
-        <v>0.01274378747854997</v>
+        <v>0.009672927608797656</v>
       </c>
       <c r="T33">
-        <v>0.01274378747854997</v>
+        <v>0.009672927608797654</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H34">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J34">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>4379.599103027832</v>
+        <v>4933.028322840752</v>
       </c>
       <c r="R34">
-        <v>4379.599103027832</v>
+        <v>44397.25490556678</v>
       </c>
       <c r="S34">
-        <v>0.01088092726690085</v>
+        <v>0.008981063117799072</v>
       </c>
       <c r="T34">
-        <v>0.01088092726690085</v>
+        <v>0.008981063117799072</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H35">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J35">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>4498.421591254917</v>
+        <v>4669.387273832773</v>
       </c>
       <c r="R35">
-        <v>4498.421591254917</v>
+        <v>42024.48546449496</v>
       </c>
       <c r="S35">
-        <v>0.011176136673437</v>
+        <v>0.008501078664715717</v>
       </c>
       <c r="T35">
-        <v>0.011176136673437</v>
+        <v>0.008501078664715715</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H36">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J36">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>1896.653821402579</v>
+        <v>1990.467271495053</v>
       </c>
       <c r="R36">
-        <v>1896.653821402579</v>
+        <v>17914.20544345547</v>
       </c>
       <c r="S36">
-        <v>0.004712155563942689</v>
+        <v>0.003623841386930439</v>
       </c>
       <c r="T36">
-        <v>0.004712155563942689</v>
+        <v>0.003623841386930438</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.012123771195</v>
+        <v>37.14495166666666</v>
       </c>
       <c r="H37">
-        <v>36.012123771195</v>
+        <v>111.434855</v>
       </c>
       <c r="I37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674146</v>
       </c>
       <c r="J37">
-        <v>0.04159676194387419</v>
+        <v>0.03245277459674145</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>780.9106262055158</v>
+        <v>854.4347244954577</v>
       </c>
       <c r="R37">
-        <v>780.9106262055158</v>
+        <v>7689.91252045912</v>
       </c>
       <c r="S37">
-        <v>0.001940139160184273</v>
+        <v>0.001555582431019561</v>
       </c>
       <c r="T37">
-        <v>0.001940139160184273</v>
+        <v>0.001555582431019561</v>
       </c>
     </row>
   </sheetData>
